--- a/excel/finished/焦化/炼焦-关键指标管控.xlsx
+++ b/excel/finished/焦化/炼焦-关键指标管控.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="关键指标管控" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t xml:space="preserve">焦化分厂6#-7#焦炉关键指标管控情况    </t>
   </si>
@@ -99,41 +99,12 @@
     <t>评价</t>
   </si>
   <si>
+    <t>正常</t>
+  </si>
+  <si>
     <t>异常说明</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>备注：每班发布一次，每班结束后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>内刷新</t>
-    </r>
-  </si>
-  <si>
     <t>CK67_L1R_CDQ_TISA_31106DisCokeTe_1m_avg</t>
   </si>
   <si>
@@ -155,7 +126,7 @@
     <t>kAvg</t>
   </si>
   <si>
-    <t>CK67_L1R_CB_CBReset_4_report</t>
+    <t>CK67_L1R_CB_CBAcTol_1m_evt</t>
   </si>
 </sst>
 </file>
@@ -163,20 +134,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -220,8 +197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -230,21 +207,99 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,83 +307,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,30 +315,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,7 +323,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -380,188 +336,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -721,11 +677,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,6 +703,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,21 +736,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,161 +768,164 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1008,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1017,32 +976,32 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1053,16 +1012,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,13 +1076,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1156,7 +1108,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1009650" cy="421005"/>
+          <a:ext cx="1010920" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1205,7 +1157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1009650" cy="421005"/>
+          <a:ext cx="1010920" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1254,7 +1206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1009650" cy="421005"/>
+          <a:ext cx="1010920" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1303,7 +1255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1009650" cy="421005"/>
+          <a:ext cx="1010920" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1352,7 +1304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1009650" cy="421005"/>
+          <a:ext cx="1010920" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1401,7 +1353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1009650" cy="421005"/>
+          <a:ext cx="1010920" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1450,7 +1402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1009650" cy="421005"/>
+          <a:ext cx="1010920" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1499,7 +1451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1009650" cy="421005"/>
+          <a:ext cx="1010920" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1743,292 +1695,281 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4166666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.9166666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.9166666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.4166666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.3333333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.6666666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.2666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.45" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.9083333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.9083333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.45" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6333333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.2666666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.6333333333333" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" ht="23.25" customHeight="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="7" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="8" t="str">
         <f>IF(_peimei_day_shift!C2="","",_peimei_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="str">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="str">
         <f>IF(_peimei_day_shift!D2="","",_peimei_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A3" s="10" t="s">
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" ht="16.5" customHeight="1" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="20.15" customHeight="1" spans="1:9">
-      <c r="A5" s="17" t="s">
+    <row r="5" s="3" customFormat="1" ht="20.15" customHeight="1" spans="1:9">
+      <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:9">
-      <c r="A6" s="16" t="s">
+    <row r="6" s="3" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="18" t="str">
+      <c r="B6" s="19" t="str">
         <f>IF(_peimei_day_shift!A2="","",_peimei_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="20" t="str">
         <f>IF(_crushing_day_shift!A2="","",_crushing_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D6" s="20" t="str">
         <f>IF(_lianjiao_day_shift!A2="","",_lianjiao_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="E6" s="20" t="str">
         <f>IF(_lianjiao_day_shift!B2="","",_lianjiao_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="F6" s="18" t="str">
+      <c r="F6" s="19" t="str">
         <f>IF(_lianjiao_day_shift!C2="","",_lianjiao_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="G6" s="19" t="str">
+      <c r="G6" s="20" t="str">
         <f>IF(_lianjiao_day_shift!D2="","",_lianjiao_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="H6" s="20" t="str">
+      <c r="H6" s="21" t="str">
         <f>IF(_tag_day_shift!A2="","",_tag_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="I6" s="19" t="str">
+      <c r="I6" s="20" t="str">
         <f>IF(_tag_day_shift!B2="","",_tag_day_shift!B2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="20.15" customHeight="1" spans="1:9">
-      <c r="A7" s="16" t="s">
+    <row r="7" s="3" customFormat="1" ht="20.15" customHeight="1" spans="1:9">
+      <c r="A7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="21" t="str">
-        <f>IF(B6="","",IF(B6&gt;=98,"正常","异常"))</f>
-        <v/>
-      </c>
-      <c r="C7" s="21" t="str">
-        <f>IF(C6="","",IF(AND(C6&gt;=68,C6&lt;=80),"正常","异常"))</f>
-        <v/>
-      </c>
-      <c r="D7" s="21" t="str">
-        <f>IF(D6="","",IF(D6&gt;=0.85,"正常","异常"))</f>
-        <v/>
-      </c>
-      <c r="E7" s="21" t="str">
-        <f>IF(E6="","",IF(E6&gt;=0.9,"正常","异常"))</f>
-        <v/>
-      </c>
-      <c r="F7" s="21" t="str">
-        <f>IF(F6="","",IF(F6&gt;=0.9,"正常","异常"))</f>
-        <v/>
-      </c>
-      <c r="G7" s="21" t="str">
-        <f>IF(G6="","",IF(G6&gt;=0.85,"正常","异常"))</f>
-        <v/>
-      </c>
-      <c r="H7" s="21" t="str">
-        <f>IF(H6="","",IF(H6&lt;=170,"正常","异常"))</f>
-        <v/>
-      </c>
-      <c r="I7" s="21" t="str">
-        <f>IF(I6="","",IF(I6&lt;=3,"正常","异常"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="35.25" customHeight="1" spans="1:9">
-      <c r="A8" s="22" t="s">
+      <c r="B7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" ht="20.5" customHeight="1" spans="1:11">
-      <c r="A9" s="28" t="s">
+      <c r="C7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="35.25" customHeight="1" spans="1:9">
+      <c r="A8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="35"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="32"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="32"/>
-      <c r="O12" s="36"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="32"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="32"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="32"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="32"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="32"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="32"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="32"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="32"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="32"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="32"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="32"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="20.5" customHeight="1" spans="1:9">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:13">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:1">
+      <c r="A11" s="33"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:15">
+      <c r="A12" s="33"/>
+      <c r="O12" s="37"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:1">
+      <c r="A13" s="33"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:1">
+      <c r="A14" s="33"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:1">
+      <c r="A15" s="33"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:1">
+      <c r="A16" s="33"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:1">
+      <c r="A17" s="33"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:1">
+      <c r="A18" s="33"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:1">
+      <c r="A19" s="33"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:4">
+      <c r="A20" s="33"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:1">
+      <c r="A21" s="33"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:1">
+      <c r="A22" s="33"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:1">
+      <c r="A23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2044,50 +1985,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="A9:I9"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
-      <formula>98</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
-      <formula>80</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="lessThan">
-      <formula>68</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
-      <formula>0.85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>0.85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>170</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2101,12 +1998,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2125,19 +2021,18 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.75" customWidth="1"/>
-    <col min="2" max="2" width="30.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2150,7 +2045,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2161,7 +2056,6 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2174,7 +2068,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2194,7 +2088,6 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2207,18 +2100,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="57" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/excel/finished/焦化/炼焦-关键指标管控.xlsx
+++ b/excel/finished/焦化/炼焦-关键指标管控.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="关键指标管控" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t xml:space="preserve">焦化分厂6#-7#焦炉关键指标管控情况    </t>
   </si>
@@ -54,9 +54,15 @@
     <t>入炉煤细度</t>
   </si>
   <si>
+    <t>K1</t>
+  </si>
+  <si>
     <t>K2</t>
   </si>
   <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>K装煤</t>
   </si>
   <si>
@@ -81,12 +87,74 @@
     <t>68~80</t>
   </si>
   <si>
+    <t>≥0.90</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+  </si>
+  <si>
     <t>≥0.85</t>
   </si>
   <si>
-    <t>≥0.90</t>
-  </si>
-  <si>
     <t>≤170℃</t>
   </si>
   <si>
@@ -99,13 +167,10 @@
     <t>评价</t>
   </si>
   <si>
-    <t>正常</t>
-  </si>
-  <si>
     <t>异常说明</t>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_TISA_31106DisCokeTe_1m_avg</t>
+    <t>CK67_L1R_CDQ_TISA_31105DisCokeTe_1m_avg</t>
   </si>
   <si>
     <t>CK67_L1R_CDQ_ARA_31101BHH2O_1m_avg</t>
@@ -114,7 +179,13 @@
     <t>crushingFineness</t>
   </si>
   <si>
+    <t>k1</t>
+  </si>
+  <si>
     <t>k2</t>
+  </si>
+  <si>
+    <t>k3</t>
   </si>
   <si>
     <t>coalLoadingCoefficient</t>
@@ -134,14 +205,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,39 +268,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,6 +367,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -249,81 +398,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -336,192 +421,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -639,6 +724,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -665,30 +774,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -711,6 +796,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -719,8 +854,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,191 +874,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,84 +1051,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1025,7 +1160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1075,7 +1210,15 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1108,7 +1251,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1010920" cy="421005"/>
+          <a:ext cx="1009650" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1157,7 +1300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1010920" cy="421005"/>
+          <a:ext cx="1009650" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1206,7 +1349,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1010920" cy="421005"/>
+          <a:ext cx="1009650" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1255,7 +1398,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1010920" cy="421005"/>
+          <a:ext cx="1009650" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1304,7 +1447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1010920" cy="421005"/>
+          <a:ext cx="1009650" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1353,7 +1496,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1010920" cy="421005"/>
+          <a:ext cx="1009650" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1402,7 +1545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1010920" cy="421005"/>
+          <a:ext cx="1009650" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1451,7 +1594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="521970"/>
-          <a:ext cx="1010920" cy="421005"/>
+          <a:ext cx="1009650" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1692,64 +1835,68 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.2666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.45" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.9083333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.9083333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.45" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.3666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6333333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.2666666666667" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.6333333333333" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="13.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.4166666666667" style="5" customWidth="1"/>
+    <col min="3" max="4" width="11.9166666666667" style="5" customWidth="1"/>
+    <col min="5" max="6" width="10.9166666666667" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.4166666666667" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6666666666667" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.6666666666667" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="23.25" customHeight="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="23.25" customHeight="1" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:11">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="8" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="str">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="str">
         <f>IF(_peimei_day_shift!C2="","",_peimei_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="str">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="41" t="str">
         <f>IF(_peimei_day_shift!D2="","",_peimei_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="I2" s="35"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:11">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1757,20 +1904,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" spans="1:11">
       <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
@@ -1780,13 +1929,13 @@
       <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -1798,193 +1947,273 @@
       <c r="I4" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="20.15" customHeight="1" spans="1:9">
-      <c r="A5" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+    </row>
+    <row r="5" ht="20.15" customHeight="1" spans="1:11">
+      <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="17" t="s">
+      <c r="D5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="E5" s="22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A6" s="17" t="s">
+      <c r="F5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="G5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="20.15" hidden="1" customHeight="1" spans="1:11">
+      <c r="A6" s="14"/>
+      <c r="B6" s="24">
+        <v>98</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="J6" s="24">
+        <v>170</v>
+      </c>
+      <c r="K6" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:11">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="25" t="str">
         <f>IF(_peimei_day_shift!A2="","",_peimei_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C7" s="26" t="str">
         <f>IF(_crushing_day_shift!A2="","",_crushing_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="20" t="str">
+      <c r="D7" s="26" t="str">
         <f>IF(_lianjiao_day_shift!A2="","",_lianjiao_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="E6" s="20" t="str">
+      <c r="E7" s="26" t="str">
         <f>IF(_lianjiao_day_shift!B2="","",_lianjiao_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F7" s="26" t="str">
         <f>IF(_lianjiao_day_shift!C2="","",_lianjiao_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="G6" s="20" t="str">
+      <c r="G7" s="26" t="str">
         <f>IF(_lianjiao_day_shift!D2="","",_lianjiao_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="H6" s="21" t="str">
+      <c r="H7" s="25" t="str">
+        <f>IF(_lianjiao_day_shift!E2="","",_lianjiao_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="I7" s="26" t="str">
+        <f>IF(_lianjiao_day_shift!F2="","",_lianjiao_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="J7" s="43" t="str">
         <f>IF(_tag_day_shift!A2="","",_tag_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="I6" s="20" t="str">
+      <c r="K7" s="26" t="str">
         <f>IF(_tag_day_shift!B2="","",_tag_day_shift!B2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="20.15" customHeight="1" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="35.25" customHeight="1" spans="1:9">
-      <c r="A8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="20.5" customHeight="1" spans="1:9">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
+    <row r="8" ht="20.15" customHeight="1" spans="1:11">
+      <c r="A8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="27" t="str">
+        <f>IF(B7="","",IF(B7&gt;=B6,"正常","异常"))</f>
+        <v/>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f>IF(C6="","",IF(AND(C6&gt;=68,C6&lt;=80),"正常”,""异常"))</f>
+        <v/>
+      </c>
+      <c r="D8" s="27" t="str">
+        <f>IF(D7="","",IF(D7&gt;=D6,"正常","异常"))</f>
+        <v/>
+      </c>
+      <c r="E8" s="27" t="str">
+        <f t="shared" ref="E8:K8" si="0">IF(E7="","",IF(E7&gt;=E6,"正常","异常"))</f>
+        <v/>
+      </c>
+      <c r="F8" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="27" t="str">
+        <f>IF(J7="","",IF(J7&lt;=J6,"正常","异常"))</f>
+        <v/>
+      </c>
+      <c r="K8" s="27" t="str">
+        <f>IF(K7="","",IF(K7&lt;=K6,"正常","异常"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="35.25" customHeight="1" spans="1:11">
+      <c r="A9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="29"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:13">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="M10" s="34"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:1">
-      <c r="A11" s="33"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:15">
-      <c r="A12" s="33"/>
-      <c r="O12" s="37"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:1">
-      <c r="A13" s="33"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:1">
-      <c r="A14" s="33"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:1">
-      <c r="A15" s="33"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:1">
-      <c r="A16" s="33"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:1">
-      <c r="A17" s="33"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:1">
-      <c r="A18" s="33"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:1">
-      <c r="A19" s="33"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:4">
-      <c r="A20" s="33"/>
-      <c r="D20" s="34"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:1">
-      <c r="A21" s="33"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:1">
-      <c r="A22" s="33"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:1">
-      <c r="A23" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="44"/>
+    </row>
+    <row r="10" ht="20.5" customHeight="1" spans="1:11">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="O11" s="40"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="39"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="39"/>
+      <c r="Q13" s="46"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="39"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="39"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="39"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="39"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="39"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="39"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="39"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="39"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="39"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A10:K10"/>
   </mergeCells>
+  <conditionalFormatting sqref="B8:K8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"异常"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1998,11 +2227,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2015,24 +2245,25 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.75" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="30.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2045,17 +2276,18 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2065,29 +2297,36 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>31</v>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2100,17 +2339,18 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="57" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/excel/finished/焦化/炼焦-关键指标管控.xlsx
+++ b/excel/finished/焦化/炼焦-关键指标管控.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="关键指标管控" sheetId="1" r:id="rId1"/>
-    <sheet name="_metadata" sheetId="2" r:id="rId2"/>
-    <sheet name="_tag_day_shift" sheetId="3" r:id="rId3"/>
-    <sheet name="_crushing_day_shift" sheetId="4" r:id="rId4"/>
-    <sheet name="_lianjiao_day_shift" sheetId="5" r:id="rId5"/>
-    <sheet name="_peimei_day_shift" sheetId="6" r:id="rId6"/>
+    <sheet name="关键指标管控" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_metadata" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_tag_day_shift" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_crushing_day_shift" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="_lianjiao_day_shift" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="_peimei_day_shift" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">焦化分厂6#-7#焦炉关键指标管控情况    </t>
   </si>
@@ -92,21 +91,19 @@
   <si>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>≥</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>0.90</t>
     </r>
@@ -114,19 +111,17 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>≥</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>0.80</t>
     </r>
@@ -134,19 +129,17 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>≥</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>0.90</t>
     </r>
@@ -203,213 +196,168 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color indexed="4"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color indexed="20"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color indexed="2"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <b/>
+      <color indexed="65"/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <color theme="1"/>
+      <sz val="10.5"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <color rgb="FF6A8759"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="33">
@@ -417,196 +365,196 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431398"/>
+        <bgColor theme="6" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810496"/>
+        <bgColor theme="6" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241899"/>
+        <bgColor theme="6" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241899"/>
+        <bgColor theme="5" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241899"/>
+        <bgColor theme="4" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241899"/>
+        <bgColor theme="7" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431398"/>
+        <bgColor theme="9" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431398"/>
+        <bgColor theme="8" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431398"/>
+        <bgColor theme="4" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810496"/>
+        <bgColor theme="4" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431398"/>
+        <bgColor theme="5" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810496"/>
+        <bgColor theme="5" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431398"/>
+        <bgColor theme="7" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810496"/>
+        <bgColor theme="7" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810496"/>
+        <bgColor theme="8" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241899"/>
+        <bgColor theme="8" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810496"/>
+        <bgColor theme="9" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241899"/>
+        <bgColor theme="9" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -616,178 +564,40 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,37 +626,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,304 +650,436 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="12" fillId="11" borderId="5" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="13" fillId="11" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="14" fillId="12" borderId="6" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="14" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="17" fillId="15" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="16" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="18" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="23" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="24" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="27" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="29" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="30" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="32" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="42">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="12" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="17" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="165" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="21" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="21" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="21" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="21" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1215,21 +1137,16 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color indexed="2"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1245,10 +1162,13 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接连接符 1"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="4" name="直接连接符 1" hidden="0"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr isPhoto="0" userDrawn="0"/>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7620" y="521970"/>
           <a:ext cx="1009650" cy="421005"/>
@@ -1294,10 +1214,13 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接连接符 2"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="5" name="直接连接符 2" hidden="0"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr isPhoto="0" userDrawn="0"/>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7620" y="521970"/>
           <a:ext cx="1009650" cy="421005"/>
@@ -1343,10 +1266,13 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直接连接符 3"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="6" name="直接连接符 3" hidden="0"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr isPhoto="0" userDrawn="0"/>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7620" y="521970"/>
           <a:ext cx="1009650" cy="421005"/>
@@ -1392,10 +1318,13 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接连接符 4"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="7" name="直接连接符 4" hidden="0"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr isPhoto="0" userDrawn="0"/>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7620" y="521970"/>
           <a:ext cx="1009650" cy="421005"/>
@@ -1441,10 +1370,13 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直接连接符 5"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="8" name="直接连接符 5" hidden="0"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr isPhoto="0" userDrawn="0"/>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7620" y="521970"/>
           <a:ext cx="1009650" cy="421005"/>
@@ -1490,10 +1422,13 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接连接符 6"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="9" name="直接连接符 6" hidden="0"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr isPhoto="0" userDrawn="0"/>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7620" y="521970"/>
           <a:ext cx="1009650" cy="421005"/>
@@ -1539,10 +1474,13 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直接连接符 7"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="10" name="直接连接符 7" hidden="0"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr isPhoto="0" userDrawn="0"/>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7620" y="521970"/>
           <a:ext cx="1009650" cy="421005"/>
@@ -1588,10 +1526,13 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接连接符 8"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="11" name="直接连接符 8" hidden="0"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr isPhoto="0" userDrawn="0"/>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7620" y="521970"/>
           <a:ext cx="1009650" cy="421005"/>
@@ -1625,8 +1566,291 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1833,526 +2057,508 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.4166666666667" style="5" customWidth="1"/>
-    <col min="3" max="4" width="11.9166666666667" style="5" customWidth="1"/>
-    <col min="5" max="6" width="10.9166666666667" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.4166666666667" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.3333333333333" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.6666666666667" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.6666666666667" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col customWidth="1" min="1" max="1" style="1" width="13.25"/>
+    <col customWidth="1" min="2" max="2" style="1" width="12.4166666666667"/>
+    <col customWidth="1" min="3" max="4" style="1" width="11.9166666666667"/>
+    <col customWidth="1" min="5" max="6" style="1" width="10.9166666666667"/>
+    <col customWidth="1" min="7" max="7" style="1" width="13.4166666666667"/>
+    <col customWidth="1" min="8" max="8" style="1" width="10.3333333333333"/>
+    <col customWidth="1" min="9" max="9" style="1" width="12.6666666666667"/>
+    <col customWidth="1" min="10" max="10" style="1" width="10.25"/>
+    <col customWidth="1" min="11" max="11" style="1" width="10.6666666666667"/>
+    <col min="12" max="16384" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+    <row ht="23.25" customHeight="1" r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:11">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row ht="17.25" customHeight="1" r="2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="str">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="str">
         <f>IF(_peimei_day_shift!C2="","",_peimei_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="41" t="str">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="str">
         <f>IF(_peimei_day_shift!D2="","",_peimei_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="K2" s="42"/>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:11">
-      <c r="A3" s="11" t="s">
+      <c r="K2" s="8"/>
+    </row>
+    <row ht="17.25" customHeight="1" r="3">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A4" s="15" t="s">
+      <c r="K3" s="11"/>
+    </row>
+    <row ht="16.5" customHeight="1" r="4">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="20.15" customHeight="1" spans="1:11">
-      <c r="A5" s="19" t="s">
+    <row ht="20.149999999999999" customHeight="1" r="5">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" ht="20.15" hidden="1" customHeight="1" spans="1:11">
-      <c r="A6" s="14"/>
-      <c r="B6" s="24">
+    <row ht="20.149999999999999" customHeight="1" hidden="1" r="6">
+      <c r="A6" s="12"/>
+      <c r="B6" s="18">
         <v>98</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="I6" s="24">
-        <v>0.85</v>
-      </c>
-      <c r="J6" s="24">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="J6" s="18">
         <v>170</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:11">
-      <c r="A7" s="17" t="s">
+    <row ht="18" customHeight="1" r="7">
+      <c r="A7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="25" t="str">
+      <c r="B7" s="21" t="str">
         <f>IF(_peimei_day_shift!A2="","",_peimei_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="C7" s="26" t="str">
+      <c r="C7" s="22" t="str">
         <f>IF(_crushing_day_shift!A2="","",_crushing_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="D7" s="22" t="str">
         <f>IF(_lianjiao_day_shift!A2="","",_lianjiao_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="E7" s="26" t="str">
+      <c r="E7" s="22" t="str">
         <f>IF(_lianjiao_day_shift!B2="","",_lianjiao_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="F7" s="26" t="str">
+      <c r="F7" s="22" t="str">
         <f>IF(_lianjiao_day_shift!C2="","",_lianjiao_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="G7" s="26" t="str">
+      <c r="G7" s="22" t="str">
         <f>IF(_lianjiao_day_shift!D2="","",_lianjiao_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="H7" s="25" t="str">
+      <c r="H7" s="21" t="str">
         <f>IF(_lianjiao_day_shift!E2="","",_lianjiao_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I7" s="22" t="str">
         <f>IF(_lianjiao_day_shift!F2="","",_lianjiao_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="J7" s="43" t="str">
+      <c r="J7" s="23" t="str">
         <f>IF(_tag_day_shift!A2="","",_tag_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="22" t="str">
         <f>IF(_tag_day_shift!B2="","",_tag_day_shift!B2)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="20.15" customHeight="1" spans="1:11">
-      <c r="A8" s="17" t="s">
+    <row ht="20.149999999999999" customHeight="1" r="8">
+      <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="27" t="str">
+      <c r="B8" s="24" t="str">
         <f>IF(B7="","",IF(B7&gt;=B6,"正常","异常"))</f>
         <v/>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="15" t="str">
         <f>IF(C6="","",IF(AND(C6&gt;=68,C6&lt;=80),"正常”,""异常"))</f>
         <v/>
       </c>
-      <c r="D8" s="27" t="str">
+      <c r="D8" s="24" t="str">
         <f>IF(D7="","",IF(D7&gt;=D6,"正常","异常"))</f>
         <v/>
       </c>
-      <c r="E8" s="27" t="str">
-        <f t="shared" ref="E8:K8" si="0">IF(E7="","",IF(E7&gt;=E6,"正常","异常"))</f>
+      <c r="E8" s="24" t="str">
+        <f>IF(E7="","",IF(E7&gt;=E6,"正常","异常"))</f>
         <v/>
       </c>
-      <c r="F8" s="27" t="str">
-        <f t="shared" si="0"/>
+      <c r="F8" s="24" t="str">
+        <f>IF(F7="","",IF(F7&gt;=F6,"正常","异常"))</f>
         <v/>
       </c>
-      <c r="G8" s="27" t="str">
-        <f t="shared" si="0"/>
+      <c r="G8" s="24" t="str">
+        <f>IF(G7="","",IF(G7&gt;=G6,"正常","异常"))</f>
         <v/>
       </c>
-      <c r="H8" s="27" t="str">
-        <f t="shared" si="0"/>
+      <c r="H8" s="24" t="str">
+        <f>IF(H7="","",IF(H7&gt;=H6,"正常","异常"))</f>
         <v/>
       </c>
-      <c r="I8" s="27" t="str">
-        <f t="shared" si="0"/>
+      <c r="I8" s="24" t="str">
+        <f>IF(I7="","",IF(I7&gt;=I6,"正常","异常"))</f>
         <v/>
       </c>
-      <c r="J8" s="27" t="str">
+      <c r="J8" s="24" t="str">
         <f>IF(J7="","",IF(J7&lt;=J6,"正常","异常"))</f>
         <v/>
       </c>
-      <c r="K8" s="27" t="str">
+      <c r="K8" s="24" t="str">
         <f>IF(K7="","",IF(K7&lt;=K6,"正常","异常"))</f>
         <v/>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="35.25" customHeight="1" spans="1:11">
-      <c r="A9" s="28" t="s">
+    <row customFormat="1" ht="35.25" customHeight="1" r="9" s="25">
+      <c r="A9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" ht="20.5" customHeight="1" spans="1:11">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="45"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="O11" s="40"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="39"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="39"/>
-      <c r="Q13" s="46"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="39"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="39"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="39"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="39"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="39"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="39"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="39"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="39"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="39"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="39"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row ht="20.5" customHeight="1" r="10">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="O11" s="37"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="38"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="38"/>
+      <c r="Q13" s="39"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="38"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="38"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="38"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="38"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="38"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="38"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="38"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="38"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="38"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="38"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D9:G9"/>
     <mergeCell ref="A10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:K8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" priority="1" dxfId="0" operator="equal">
       <formula>"异常"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.75" customWidth="1"/>
-    <col min="2" max="2" width="30.5833333333333" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="30.75"/>
+    <col customWidth="1" min="2" max="2" width="30.5833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="40" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="57" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row ht="57" r="1">
+      <c r="A1" s="41" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/炼焦-关键指标管控.xlsx
+++ b/excel/finished/焦化/炼焦-关键指标管控.xlsx
@@ -2295,8 +2295,8 @@
         <f>IF(B7="","",IF(B7&gt;=B6,"正常","异常"))</f>
         <v/>
       </c>
-      <c r="C8" s="15" t="str">
-        <f>IF(C6="","",IF(AND(C6&gt;=68,C6&lt;=80),"正常”,""异常"))</f>
+      <c r="C8" s="24" t="str">
+        <f>IF(C7="","",IF(AND(C7&gt;=68,C7&lt;=80),"正常","异常"))</f>
         <v/>
       </c>
       <c r="D8" s="24" t="str">

--- a/excel/finished/焦化/炼焦-关键指标管控.xlsx
+++ b/excel/finished/焦化/炼焦-关键指标管控.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t xml:space="preserve">焦化分厂6#-7#焦炉关键指标管控情况    </t>
+    <t xml:space="preserve">焦化热工作业区6#-7#焦炉关键指标管控情况    </t>
   </si>
   <si>
     <t>日期：</t>
